--- a/варианты/ЕГКР/22_12252.xlsx
+++ b/варианты/ЕГКР/22_12252.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjectsA\варианты\ЕГКР\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD4DD3A-5A5B-471F-93C8-D0104C218DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,22 +377,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="Y14" sqref="J14:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="35" width="3.28515625" customWidth="1"/>
     <col min="36" max="36" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -554,14 +549,14 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
         <v>1</v>
       </c>
       <c r="AJ3" t="b">
-        <f t="shared" ref="AJ3:AJ9" si="0">SUM(F3:AI3)=B3</f>
+        <f>SUM(H3:AI3)=B3</f>
         <v>1</v>
       </c>
     </row>
@@ -594,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AJ3:AJ9" si="0">SUM(F4:AI4)=B4</f>
         <v>1</v>
       </c>
     </row>
@@ -776,6 +771,12 @@
       <c r="E10" s="2">
         <v>9</v>
       </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
       <c r="L10" s="4">
         <v>1</v>
       </c>
@@ -791,14 +792,8 @@
       <c r="P10" s="4">
         <v>1</v>
       </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
       <c r="AJ10" t="b">
-        <f>SUM(L10:AI10)=B10</f>
+        <f>SUM(J10:AI10)=B10</f>
         <v>1</v>
       </c>
     </row>
@@ -815,6 +810,12 @@
       <c r="E11" s="2">
         <v>10</v>
       </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
       <c r="L11" s="4">
         <v>1</v>
       </c>
@@ -827,14 +828,8 @@
       <c r="O11" s="4">
         <v>1</v>
       </c>
-      <c r="P11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>1</v>
-      </c>
       <c r="AJ11" t="b">
-        <f>SUM(L11:AI11)=B11</f>
+        <f>SUM(J11:AI11)=B11</f>
         <v>1</v>
       </c>
     </row>
@@ -851,6 +846,12 @@
       <c r="E12" s="2">
         <v>11</v>
       </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
       <c r="S12" s="4">
         <v>1</v>
       </c>
@@ -870,12 +871,6 @@
         <v>1</v>
       </c>
       <c r="Y12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="4">
         <v>1</v>
       </c>
       <c r="AJ12" t="b">
@@ -896,6 +891,12 @@
       <c r="E13" s="2">
         <v>12</v>
       </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
       <c r="R13" s="4">
         <v>1</v>
       </c>
@@ -921,12 +922,6 @@
         <v>1</v>
       </c>
       <c r="Z13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="4">
         <v>1</v>
       </c>
       <c r="AJ13" t="b">
@@ -937,11 +932,11 @@
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F14">
         <f>COUNT(F2:F13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14:AI14" si="1">COUNT(G2:G13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -953,11 +948,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -976,11 +971,11 @@
         <v>4</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
+        <f>COUNT(P2:P13)</f>
         <v>4</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f>COUNT(Q2:Q13)</f>
         <v>4</v>
       </c>
       <c r="R14">
@@ -1004,31 +999,31 @@
         <v>4</v>
       </c>
       <c r="W14">
-        <f>COUNT(W2:W13)</f>
+        <f t="shared" ref="W14:AC14" si="2">COUNT(W2:W13)</f>
         <v>4</v>
       </c>
       <c r="X14">
-        <f>COUNT(X2:X13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Y14">
-        <f>COUNT(Y2:Y13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Z14">
-        <f>COUNT(Z2:Z13)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AA14">
-        <f>COUNT(AA2:AA13)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <f>COUNT(AB2:AB13)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <f>COUNT(AC2:AC13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD14">
